--- a/100runs/run015/NotionalETEOutput015.xlsx
+++ b/100runs/run015/NotionalETEOutput015.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="20">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,22 +49,31 @@
     <t>tUp</t>
   </si>
   <si>
+    <t>Missile_BRAVER_State_Update</t>
+  </si>
+  <si>
     <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>Missile_BRAVER_State_Update</t>
+    <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_358.MISSILE_HIGHWIND_358</t>
+    <t>MISSILE_BRAVER_441.MISSILE_BRAVER_441</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_354.MISSILE_BRAVER_354</t>
+    <t>MISSILE_HIGHWIND_80.MISSILE_HIGHWIND_80</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER_464.MISSILE_HELLMASKER_464</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER</t>
   </si>
   <si>
     <t>MISSILE_HIGHWIND</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER</t>
+    <t>MISSILE_HELLMASKER</t>
   </si>
 </sst>
 </file>
@@ -422,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,31 +480,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>199.2789238467349</v>
+        <v>1116579.891072694</v>
       </c>
       <c r="G2">
-        <v>-73.72978714218767</v>
+        <v>4841137.153343407</v>
       </c>
       <c r="H2">
-        <v>887.2953251549657</v>
+        <v>3985222.866184872</v>
       </c>
       <c r="I2">
-        <v>-2127.662477664633</v>
+        <v>1114857.904040003</v>
       </c>
       <c r="J2">
-        <v>1136.361565542471</v>
+        <v>4843223.079401362</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984363.548341725</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -506,31 +515,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>199.2789238467349</v>
+        <v>1116579.891072694</v>
       </c>
       <c r="G3">
-        <v>-73.72978714218767</v>
+        <v>4841137.153343407</v>
       </c>
       <c r="H3">
-        <v>887.2953251549657</v>
+        <v>3985222.866184872</v>
       </c>
       <c r="I3">
-        <v>-2085.656754949257</v>
+        <v>1114887.517944735</v>
       </c>
       <c r="J3">
-        <v>1108.718668055878</v>
+        <v>4843174.427815087</v>
       </c>
       <c r="K3">
-        <v>325.944136562993</v>
+        <v>3984667.343817293</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,31 +550,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>199.2789238467349</v>
+        <v>1116579.891072694</v>
       </c>
       <c r="G4">
-        <v>-73.72978714218767</v>
+        <v>4841137.153343407</v>
       </c>
       <c r="H4">
-        <v>887.2953251549657</v>
+        <v>3985222.866184872</v>
       </c>
       <c r="I4">
-        <v>-2042.616679956571</v>
+        <v>1114917.861064626</v>
       </c>
       <c r="J4">
-        <v>1081.075770569284</v>
+        <v>4843125.776228813</v>
       </c>
       <c r="K4">
-        <v>635.6352044026703</v>
+        <v>3984955.990657902</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,31 +585,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>199.2789238467349</v>
+        <v>1116579.891072694</v>
       </c>
       <c r="G5">
-        <v>-73.72978714218767</v>
+        <v>4841137.153343407</v>
       </c>
       <c r="H5">
-        <v>887.2953251549657</v>
+        <v>3985222.866184872</v>
       </c>
       <c r="I5">
-        <v>-1998.516782713333</v>
+        <v>1114948.95135593</v>
       </c>
       <c r="J5">
-        <v>1053.432873082691</v>
+        <v>4843077.124642538</v>
       </c>
       <c r="K5">
-        <v>929.0732035190341</v>
+        <v>3985229.48886355</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,31 +620,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>199.2789238467349</v>
+        <v>1116579.891072694</v>
       </c>
       <c r="G6">
-        <v>-73.72978714218767</v>
+        <v>4841137.153343407</v>
       </c>
       <c r="H6">
-        <v>887.2953251549657</v>
+        <v>3985222.866184872</v>
       </c>
       <c r="I6">
-        <v>-1953.330966071642</v>
+        <v>1114980.807217054</v>
       </c>
       <c r="J6">
-        <v>1025.789975596098</v>
+        <v>4843028.473056264</v>
       </c>
       <c r="K6">
-        <v>1206.258133912082</v>
+        <v>3985487.838434238</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,31 +655,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>199.2789238467349</v>
+        <v>1116579.891072694</v>
       </c>
       <c r="G7">
-        <v>-73.72978714218767</v>
+        <v>4841137.153343407</v>
       </c>
       <c r="H7">
-        <v>887.2953251549657</v>
+        <v>3985222.866184872</v>
       </c>
       <c r="I7">
-        <v>-1907.032490265338</v>
+        <v>1115013.447499452</v>
       </c>
       <c r="J7">
-        <v>998.1470781095048</v>
+        <v>4842979.82146999</v>
       </c>
       <c r="K7">
-        <v>1467.189995581818</v>
+        <v>3985731.039369965</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,31 +690,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>199.2789238467349</v>
+        <v>1116579.891072694</v>
       </c>
       <c r="G8">
-        <v>-73.72978714218767</v>
+        <v>4841137.153343407</v>
       </c>
       <c r="H8">
-        <v>887.2953251549657</v>
+        <v>3985222.866184872</v>
       </c>
       <c r="I8">
-        <v>-1859.59395708612</v>
+        <v>1115046.891518776</v>
       </c>
       <c r="J8">
-        <v>970.5041806229116</v>
+        <v>4842931.169883715</v>
       </c>
       <c r="K8">
-        <v>1711.868788528238</v>
+        <v>3985959.091670732</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,31 +725,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>199.2789238467349</v>
+        <v>1116579.891072694</v>
       </c>
       <c r="G9">
-        <v>-73.72978714218767</v>
+        <v>4841137.153343407</v>
       </c>
       <c r="H9">
-        <v>887.2953251549657</v>
+        <v>3985222.866184872</v>
       </c>
       <c r="I9">
-        <v>-1810.987293670015</v>
+        <v>1115081.159066307</v>
       </c>
       <c r="J9">
-        <v>942.8612831363183</v>
+        <v>4842882.51829744</v>
       </c>
       <c r="K9">
-        <v>1940.294512751344</v>
+        <v>3986171.99533654</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,31 +760,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>199.2789238467349</v>
+        <v>1116579.891072694</v>
       </c>
       <c r="G10">
-        <v>-61.55492392804109</v>
+        <v>4841153.666205562</v>
       </c>
       <c r="H10">
-        <v>887.2953251549657</v>
+        <v>3985222.866184872</v>
       </c>
       <c r="I10">
-        <v>-1761.183735884599</v>
+        <v>1115116.27042067</v>
       </c>
       <c r="J10">
-        <v>915.2183856497252</v>
+        <v>4842833.866711167</v>
       </c>
       <c r="K10">
-        <v>2152.467168251134</v>
+        <v>3986369.750367386</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,31 +795,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>154.6636920786067</v>
+        <v>1116531.210448444</v>
       </c>
       <c r="G11">
-        <v>-49.3800607138945</v>
+        <v>4841170.179067715</v>
       </c>
       <c r="H11">
-        <v>1093.14186993115</v>
+        <v>3985422.120318548</v>
       </c>
       <c r="I11">
-        <v>-1710.153811307149</v>
+        <v>1115152.246359833</v>
       </c>
       <c r="J11">
-        <v>887.575488163132</v>
+        <v>4842785.215124892</v>
       </c>
       <c r="K11">
-        <v>2348.38675502761</v>
+        <v>3986552.356763272</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>128.4544815564602</v>
+        <v>1116502.613023781</v>
       </c>
       <c r="G12">
-        <v>-37.20519749974792</v>
+        <v>4841186.69192987</v>
       </c>
       <c r="H12">
-        <v>1215.754599391808</v>
+        <v>3985540.806270808</v>
       </c>
       <c r="I12">
-        <v>-1657.86732178365</v>
+        <v>1115189.108173401</v>
       </c>
       <c r="J12">
-        <v>859.9325906765387</v>
+        <v>4842736.563538617</v>
       </c>
       <c r="K12">
-        <v>2528.053273080772</v>
+        <v>3986719.814524198</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,31 +865,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>111.9093050699127</v>
+        <v>1116484.560231321</v>
       </c>
       <c r="G13">
-        <v>-25.03033428560134</v>
+        <v>4841203.204792025</v>
       </c>
       <c r="H13">
-        <v>1303.377630059766</v>
+        <v>3985625.623099212</v>
       </c>
       <c r="I13">
-        <v>-1604.293325558322</v>
+        <v>1115226.877675215</v>
       </c>
       <c r="J13">
-        <v>832.2896931899454</v>
+        <v>4842687.911952343</v>
       </c>
       <c r="K13">
-        <v>2691.46672241062</v>
+        <v>3986872.123650163</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,31 +900,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>100.3707661490087</v>
+        <v>1116471.97028714</v>
       </c>
       <c r="G14">
-        <v>-12.85547107145475</v>
+        <v>4841219.717654179</v>
       </c>
       <c r="H14">
-        <v>1371.609637096831</v>
+        <v>3985691.669918049</v>
       </c>
       <c r="I14">
-        <v>-1549.400118963119</v>
+        <v>1115265.577216265</v>
       </c>
       <c r="J14">
-        <v>804.6467957033522</v>
+        <v>4842639.260366069</v>
       </c>
       <c r="K14">
-        <v>2838.627103017153</v>
+        <v>3987009.284141168</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,31 +935,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>91.76267057419869</v>
+        <v>1116462.577811754</v>
       </c>
       <c r="G15">
-        <v>-0.6806078573081797</v>
+        <v>4841236.230516333</v>
       </c>
       <c r="H15">
-        <v>1427.496943417079</v>
+        <v>3985745.767385736</v>
       </c>
       <c r="I15">
-        <v>-1493.155217656333</v>
+        <v>1115305.229697909</v>
       </c>
       <c r="J15">
-        <v>777.003898216759</v>
+        <v>4842590.608779795</v>
       </c>
       <c r="K15">
-        <v>2969.534414900371</v>
+        <v>3987131.295997214</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,31 +970,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>85.03234191960632</v>
+        <v>1116455.234207623</v>
       </c>
       <c r="G16">
-        <v>11.49425535683841</v>
+        <v>4841252.743378487</v>
       </c>
       <c r="H16">
-        <v>1474.829412294695</v>
+        <v>3985791.583991942</v>
       </c>
       <c r="I16">
-        <v>-1435.525337399228</v>
+        <v>1115345.858585435</v>
       </c>
       <c r="J16">
-        <v>749.3610007301658</v>
+        <v>4842541.95719352</v>
       </c>
       <c r="K16">
-        <v>3084.188658060275</v>
+        <v>3987238.159218298</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,31 +1005,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>79.58701598674295</v>
+        <v>1116449.292697176</v>
       </c>
       <c r="G17">
-        <v>23.66911857098499</v>
+        <v>4841269.256240642</v>
       </c>
       <c r="H17">
-        <v>1515.881708518732</v>
+        <v>3985831.321553378</v>
       </c>
       <c r="I17">
-        <v>-1376.476374359309</v>
+        <v>1115387.487921938</v>
       </c>
       <c r="J17">
-        <v>721.7181032435726</v>
+        <v>4842493.305607245</v>
       </c>
       <c r="K17">
-        <v>3182.589832496865</v>
+        <v>3987329.873804422</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,31 +1040,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>75.06545518413991</v>
+        <v>1116444.359126426</v>
       </c>
       <c r="G18">
-        <v>35.84398178513157</v>
+        <v>4841285.769102797</v>
       </c>
       <c r="H18">
-        <v>1552.126823808014</v>
+        <v>3985866.405887947</v>
       </c>
       <c r="I18">
-        <v>-1315.973384928583</v>
+        <v>1115430.142342554</v>
       </c>
       <c r="J18">
-        <v>694.0752057569792</v>
+        <v>4842444.654020972</v>
       </c>
       <c r="K18">
-        <v>3264.73793821014</v>
+        <v>3987406.439755586</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,31 +1075,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>71.23377260911349</v>
+        <v>1116440.17829642</v>
       </c>
       <c r="G19">
-        <v>48.01884499927817</v>
+        <v>4841302.28196495</v>
       </c>
       <c r="H19">
-        <v>1584.573495555832</v>
+        <v>3985897.813427369</v>
       </c>
       <c r="I19">
-        <v>-1253.980565044853</v>
+        <v>1115473.847089037</v>
       </c>
       <c r="J19">
-        <v>666.432308270386</v>
+        <v>4842396.002434697</v>
       </c>
       <c r="K19">
-        <v>3330.632975200101</v>
+        <v>3987467.85707179</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,31 +1110,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>67.93315189108377</v>
+        <v>1116436.576919254</v>
       </c>
       <c r="G20">
-        <v>60.19370821342474</v>
+        <v>4841318.794827105</v>
       </c>
       <c r="H20">
-        <v>1613.942886749732</v>
+        <v>3985926.242238769</v>
       </c>
       <c r="I20">
-        <v>-1190.461229003836</v>
+        <v>1115518.628024694</v>
       </c>
       <c r="J20">
-        <v>638.7894107837928</v>
+        <v>4842347.350848422</v>
       </c>
       <c r="K20">
-        <v>3380.274943466747</v>
+        <v>3987514.125753033</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,31 +1145,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>65.05153945544676</v>
+        <v>1116433.432730898</v>
       </c>
       <c r="G21">
-        <v>72.36857142757131</v>
+        <v>4841335.30768926</v>
       </c>
       <c r="H21">
-        <v>1640.768472145154</v>
+        <v>3985952.208711921</v>
       </c>
       <c r="I21">
-        <v>-1125.377787749526</v>
+        <v>1115564.511649694</v>
       </c>
       <c r="J21">
-        <v>611.1465132971996</v>
+        <v>4842298.699262149</v>
       </c>
       <c r="K21">
-        <v>3413.663843010078</v>
+        <v>3987545.245799316</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,31 +1180,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>62.50734802925059</v>
+        <v>1116430.656709752</v>
       </c>
       <c r="G22">
-        <v>84.54343464171791</v>
+        <v>4841351.820551414</v>
       </c>
       <c r="H22">
-        <v>1665.456000418295</v>
+        <v>3985976.105601053</v>
       </c>
       <c r="I22">
-        <v>-1058.691726629997</v>
+        <v>1115611.525116747</v>
       </c>
       <c r="J22">
-        <v>583.5036158106064</v>
+        <v>4842250.047675874</v>
       </c>
       <c r="K22">
-        <v>3430.799673830096</v>
+        <v>3987561.217210639</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,31 +1215,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>60.2395908281639</v>
+        <v>1116428.182311843</v>
       </c>
       <c r="G23">
-        <v>96.71829785586449</v>
+        <v>4841368.333413569</v>
       </c>
       <c r="H23">
-        <v>1688.321271718694</v>
+        <v>3985998.238592545</v>
       </c>
       <c r="I23">
-        <v>-990.3635826054506</v>
+        <v>1115659.696247175</v>
       </c>
       <c r="J23">
-        <v>555.8607183240131</v>
+        <v>4842201.3960896</v>
       </c>
       <c r="K23">
-        <v>3431.682435926798</v>
+        <v>3987562.039987001</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,31 +1250,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>58.20165283836205</v>
+        <v>1116425.958674543</v>
       </c>
       <c r="G24">
-        <v>108.8931610700111</v>
+        <v>4841384.846275724</v>
       </c>
       <c r="H24">
-        <v>1709.61490493869</v>
+        <v>3986018.850279006</v>
       </c>
       <c r="I24">
-        <v>-920.3529208950399</v>
+        <v>1115709.053547373</v>
       </c>
       <c r="J24">
-        <v>528.2178208374198</v>
+        <v>4842152.744503325</v>
       </c>
       <c r="K24">
-        <v>3416.312129300186</v>
+        <v>3987547.714128403</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,31 +1285,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>56.35721617431268</v>
+        <v>1116423.946170637</v>
       </c>
       <c r="G25">
-        <v>121.0680242841577</v>
+        <v>4841401.359137878</v>
       </c>
       <c r="H25">
-        <v>1729.539126701558</v>
+        <v>3986038.13641058</v>
       </c>
       <c r="I25">
-        <v>-848.6183110486373</v>
+        <v>1115759.62622568</v>
       </c>
       <c r="J25">
-        <v>500.5749233508267</v>
+        <v>4842104.092917051</v>
       </c>
       <c r="K25">
-        <v>3384.68875395026</v>
+        <v>3987518.239634844</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,31 +1320,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>54.6775121957291</v>
+        <v>1116422.113410053</v>
       </c>
       <c r="G26">
-        <v>133.2428874983043</v>
+        <v>4841417.872000032</v>
       </c>
       <c r="H26">
-        <v>1748.259480328205</v>
+        <v>3986056.257228921</v>
       </c>
       <c r="I26">
-        <v>-775.1173024293985</v>
+        <v>1115811.444209665</v>
       </c>
       <c r="J26">
-        <v>472.9320258642334</v>
+        <v>4842055.441330777</v>
       </c>
       <c r="K26">
-        <v>3336.812309877019</v>
+        <v>3987473.616506326</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,31 +1355,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>53.13941886284762</v>
+        <v>1116420.435163843</v>
       </c>
       <c r="G27">
-        <v>145.4177507124508</v>
+        <v>4841434.384862186</v>
       </c>
       <c r="H27">
-        <v>1765.913194533684</v>
+        <v>3986073.345567877</v>
       </c>
       <c r="I27">
-        <v>-699.8063990925991</v>
+        <v>1115864.538163834</v>
       </c>
       <c r="J27">
-        <v>445.2891283776401</v>
+        <v>4842006.789744502</v>
       </c>
       <c r="K27">
-        <v>3272.682797080463</v>
+        <v>3987413.844742846</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,31 +1390,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>51.72411260657835</v>
+        <v>1116418.890893214</v>
       </c>
       <c r="G28">
-        <v>157.5926139265974</v>
+        <v>4841450.897724341</v>
       </c>
       <c r="H28">
-        <v>1782.615293867361</v>
+        <v>3986089.51276824</v>
       </c>
       <c r="I28">
-        <v>-622.6410340458918</v>
+        <v>1115918.939507779</v>
       </c>
       <c r="J28">
-        <v>417.646230891047</v>
+        <v>4841958.138158227</v>
       </c>
       <c r="K28">
-        <v>3192.300215560594</v>
+        <v>3987338.924344407</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,31 +1425,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>50.41609347825896</v>
+        <v>1116417.463685841</v>
       </c>
       <c r="G29">
-        <v>169.767477140744</v>
+        <v>4841467.410586496</v>
       </c>
       <c r="H29">
-        <v>1798.463144859458</v>
+        <v>3986104.853078292</v>
       </c>
       <c r="I29">
-        <v>-543.5755428757428</v>
+        <v>1115974.68043477</v>
       </c>
       <c r="J29">
-        <v>390.0033334044537</v>
+        <v>4841909.486571954</v>
       </c>
       <c r="K29">
-        <v>3095.664565317409</v>
+        <v>3987248.855311008</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,31 +1460,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>49.20246736969857</v>
+        <v>1116416.139472692</v>
       </c>
       <c r="G30">
-        <v>181.9423403548905</v>
+        <v>4841483.923448649</v>
       </c>
       <c r="H30">
-        <v>1813.539895114728</v>
+        <v>3986119.446982766</v>
       </c>
       <c r="I30">
-        <v>-462.5631367244471</v>
+        <v>1116031.793930807</v>
       </c>
       <c r="J30">
-        <v>362.3604359178604</v>
+        <v>4841860.834985679</v>
       </c>
       <c r="K30">
-        <v>2982.77584635091</v>
+        <v>3987143.637642648</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,31 +1495,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>48.07240890346527</v>
+        <v>1116414.906441967</v>
       </c>
       <c r="G31">
-        <v>194.1172035690371</v>
+        <v>4841500.436310804</v>
       </c>
       <c r="H31">
-        <v>1827.91711388484</v>
+        <v>3986133.363758847</v>
       </c>
       <c r="I31">
-        <v>-379.555874601723</v>
+        <v>1116090.313794141</v>
       </c>
       <c r="J31">
-        <v>334.7175384312673</v>
+        <v>4841812.183399404</v>
       </c>
       <c r="K31">
-        <v>2853.634058661097</v>
+        <v>3987023.271339327</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,31 +1530,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>47.01675363150692</v>
+        <v>1116413.754594143</v>
       </c>
       <c r="G32">
-        <v>206.2920667831837</v>
+        <v>4841516.949172959</v>
       </c>
       <c r="H32">
-        <v>1841.656846770579</v>
+        <v>3986146.663465072</v>
       </c>
       <c r="I32">
-        <v>-294.5046350145078</v>
+        <v>1116150.274655272</v>
       </c>
       <c r="J32">
-        <v>307.074640944674</v>
+        <v>4841763.53181313</v>
       </c>
       <c r="K32">
-        <v>2708.239202247968</v>
+        <v>3986887.756401047</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,31 +1565,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>46.02768431309475</v>
+        <v>1116412.675399663</v>
       </c>
       <c r="G33">
-        <v>218.4669299973303</v>
+        <v>4841533.462035113</v>
       </c>
       <c r="H33">
-        <v>1854.81323393465</v>
+        <v>3986159.398507721</v>
       </c>
       <c r="I33">
-        <v>-207.3590868981626</v>
+        <v>1116211.711997446</v>
       </c>
       <c r="J33">
-        <v>279.4317434580808</v>
+        <v>4841714.880226856</v>
       </c>
       <c r="K33">
-        <v>2546.591277111527</v>
+        <v>3986737.092827805</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,31 +1600,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>45.09848666665577</v>
+        <v>1116411.661532432</v>
       </c>
       <c r="G34">
-        <v>230.6417932114769</v>
+        <v>4841549.974897267</v>
       </c>
       <c r="H34">
-        <v>1867.433798575342</v>
+        <v>3986171.614888018</v>
       </c>
       <c r="I34">
-        <v>-118.0676598318865</v>
+        <v>1116274.662177649</v>
       </c>
       <c r="J34">
-        <v>251.7888459714875</v>
+        <v>4841666.228640581</v>
       </c>
       <c r="K34">
-        <v>2368.69028325177</v>
+        <v>3986571.280619604</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,31 +1635,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>44.22335712487662</v>
+        <v>1116410.706660056</v>
       </c>
       <c r="G35">
-        <v>242.8166564256235</v>
+        <v>4841566.487759422</v>
       </c>
       <c r="H35">
-        <v>1879.560483141854</v>
+        <v>3986183.353205172</v>
       </c>
       <c r="I35">
-        <v>-26.57751352071032</v>
+        <v>1116339.162448127</v>
       </c>
       <c r="J35">
-        <v>224.1459484848943</v>
+        <v>4841617.577054307</v>
       </c>
       <c r="K35">
-        <v>2174.536220668698</v>
+        <v>3986390.319776442</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,31 +1670,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>43.39725000080123</v>
+        <v>1116409.805277077</v>
       </c>
       <c r="G36">
-        <v>254.9915196397701</v>
+        <v>4841583.000621577</v>
       </c>
       <c r="H36">
-        <v>1891.230490329638</v>
+        <v>3986194.64947043</v>
       </c>
       <c r="I36">
-        <v>67.16549347398758</v>
+        <v>1116405.250978426</v>
       </c>
       <c r="J36">
-        <v>196.5030509983011</v>
+        <v>4841568.925468032</v>
       </c>
       <c r="K36">
-        <v>1964.129089362312</v>
+        <v>3986194.210298321</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,31 +1705,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>42.61575486320105</v>
+        <v>1116408.952571182</v>
       </c>
       <c r="G37">
-        <v>267.1663828539167</v>
+        <v>4841599.513483731</v>
       </c>
       <c r="H37">
-        <v>1902.476971392503</v>
+        <v>3986205.535773348</v>
       </c>
       <c r="I37">
-        <v>163.2168357739447</v>
+        <v>1116472.966877983</v>
       </c>
       <c r="J37">
-        <v>168.8601535117078</v>
+        <v>4841520.273881759</v>
       </c>
       <c r="K37">
-        <v>1737.468889332612</v>
+        <v>3985982.952185238</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,31 +1740,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>41.87499731161655</v>
+        <v>1116408.144314929</v>
       </c>
       <c r="G38">
-        <v>279.3412460680632</v>
+        <v>4841616.026345885</v>
       </c>
       <c r="H38">
-        <v>1913.32959387295</v>
+        <v>3986216.040831341</v>
       </c>
       <c r="I38">
-        <v>261.6333540124245</v>
+        <v>1116542.35021927</v>
       </c>
       <c r="J38">
-        <v>141.2172560251147</v>
+        <v>4841471.622295484</v>
       </c>
       <c r="K38">
-        <v>1494.555620579598</v>
+        <v>3985756.545437195</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,31 +1775,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>41.17155805266074</v>
+        <v>1116407.376777456</v>
       </c>
       <c r="G39">
-        <v>291.5161092822099</v>
+        <v>4841632.53920804</v>
       </c>
       <c r="H39">
-        <v>1923.815013243874</v>
+        <v>3986226.190446217</v>
       </c>
       <c r="I39">
-        <v>362.4732884709894</v>
+        <v>1116613.442061504</v>
       </c>
       <c r="J39">
-        <v>113.5743585385214</v>
+        <v>4841422.970709209</v>
       </c>
       <c r="K39">
-        <v>1235.389283103268</v>
+        <v>3985514.990054192</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,31 +1810,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>40.50240641897324</v>
+        <v>1116406.646651937</v>
       </c>
       <c r="G40">
-        <v>303.6909724963564</v>
+        <v>4841649.052070195</v>
       </c>
       <c r="H40">
-        <v>1933.957267340018</v>
+        <v>3986236.007885978</v>
       </c>
       <c r="I40">
-        <v>465.7963135445586</v>
+        <v>1116686.28447495</v>
       </c>
       <c r="J40">
-        <v>85.93146105192811</v>
+        <v>4841374.319122935</v>
       </c>
       <c r="K40">
-        <v>959.9698769036239</v>
+        <v>3985258.286036229</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,31 +1845,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>39.8648453811557</v>
+        <v>1116405.950995587</v>
       </c>
       <c r="G41">
-        <v>315.865835710503</v>
+        <v>4841665.564932348</v>
       </c>
       <c r="H41">
-        <v>1943.778108267192</v>
+        <v>3986245.514206101</v>
       </c>
       <c r="I41">
-        <v>571.6635730551228</v>
+        <v>1116760.920565813</v>
       </c>
       <c r="J41">
-        <v>58.28856356533495</v>
+        <v>4841325.667536661</v>
       </c>
       <c r="K41">
-        <v>668.297401980666</v>
+        <v>3984986.433383306</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,31 +1880,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>39.25646577676161</v>
+        <v>1116405.287179716</v>
       </c>
       <c r="G42">
-        <v>328.0406989246496</v>
+        <v>4841682.077794503</v>
       </c>
       <c r="H42">
-        <v>1953.297283317389</v>
+        <v>3986254.728521455</v>
       </c>
       <c r="I42">
-        <v>680.1377164350441</v>
+        <v>1116837.394501749</v>
       </c>
       <c r="J42">
-        <v>30.64566607874167</v>
+        <v>4841277.015950387</v>
       </c>
       <c r="K42">
-        <v>360.3718583343927</v>
+        <v>3984699.432095421</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,31 +1915,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>38.67510798493795</v>
+        <v>1116404.652847917</v>
       </c>
       <c r="G43">
-        <v>340.2155621387962</v>
+        <v>4841698.590656658</v>
       </c>
       <c r="H43">
-        <v>1962.53277401179</v>
+        <v>3986263.668237685</v>
       </c>
       <c r="I43">
-        <v>791.2829358013131</v>
+        <v>1116915.751538004</v>
       </c>
       <c r="J43">
-        <v>3.002768592148389</v>
+        <v>4841228.364364112</v>
       </c>
       <c r="K43">
-        <v>36.19324596480516</v>
+        <v>3984397.282172577</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,31 +1950,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>38.11882965676136</v>
+        <v>1116404.045880852</v>
       </c>
       <c r="G44">
-        <v>352.3904253529427</v>
+        <v>4841715.103518812</v>
       </c>
       <c r="H44">
-        <v>1971.50100054491</v>
+        <v>3986272.349249117</v>
       </c>
       <c r="I44">
-        <v>905.1650039427485</v>
+        <v>1116996.038044189</v>
       </c>
       <c r="J44">
-        <v>-24.64012889444476</v>
+        <v>4841179.712777838</v>
       </c>
       <c r="K44">
-        <v>-304.2384351280959</v>
+        <v>3984079.983614773</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,31 +1985,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>37.58587840228312</v>
+        <v>1116403.464366452</v>
       </c>
       <c r="G45">
-        <v>364.5652885670893</v>
+        <v>4841731.616380966</v>
       </c>
       <c r="H45">
-        <v>1980.216997470565</v>
+        <v>3986280.78610881</v>
       </c>
       <c r="I45">
-        <v>1021.851313242586</v>
+        <v>1117078.301531726</v>
       </c>
       <c r="J45">
-        <v>-52.28302638103805</v>
+        <v>4841131.061191563</v>
       </c>
       <c r="K45">
-        <v>-660.9231849443124</v>
+        <v>3983747.536422008</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,31 +2020,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>37.07466855912275</v>
+        <v>1116402.906574565</v>
       </c>
       <c r="G46">
-        <v>376.7401517812359</v>
+        <v>4841748.129243121</v>
       </c>
       <c r="H46">
-        <v>1988.694565351469</v>
+        <v>3986288.992175352</v>
       </c>
       <c r="I46">
-        <v>1141.410915559496</v>
+        <v>1117162.590681964</v>
       </c>
       <c r="J46">
-        <v>-79.92592386763133</v>
+        <v>4841082.409605289</v>
       </c>
       <c r="K46">
-        <v>-1033.861003483844</v>
+        <v>3983399.940594282</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,31 +2055,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>36.58376134099395</v>
+        <v>1116402.370935303</v>
       </c>
       <c r="G47">
-        <v>388.9150149953825</v>
+        <v>4841764.642105275</v>
       </c>
       <c r="H47">
-        <v>1996.946402213793</v>
+        <v>3986296.979740103</v>
       </c>
       <c r="I47">
-        <v>1263.914563090643</v>
+        <v>1117248.955374981</v>
       </c>
       <c r="J47">
-        <v>-107.5688213542246</v>
+        <v>4841033.758019014</v>
       </c>
       <c r="K47">
-        <v>-1423.05189074669</v>
+        <v>3983037.196131597</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,31 +2090,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>36.1118478000941</v>
+        <v>1116401.856020445</v>
       </c>
       <c r="G48">
-        <v>401.089878209529</v>
+        <v>4841781.15496743</v>
       </c>
       <c r="H48">
-        <v>2004.984217950379</v>
+        <v>3986304.760137937</v>
       </c>
       <c r="I48">
-        <v>1389.434750240955</v>
+        <v>1117337.44671911</v>
       </c>
       <c r="J48">
-        <v>-135.2117188408176</v>
+        <v>4840985.106432741</v>
       </c>
       <c r="K48">
-        <v>-1828.495846732847</v>
+        <v>3982659.303033951</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,31 +2125,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>35.65773414391361</v>
+        <v>1116401.360527417</v>
       </c>
       <c r="G49">
-        <v>413.2647414236757</v>
+        <v>4841797.667829584</v>
       </c>
       <c r="H49">
-        <v>2012.818834259756</v>
+        <v>3986312.34384398</v>
       </c>
       <c r="I49">
-        <v>1518.045756523389</v>
+        <v>1117428.117081177</v>
       </c>
       <c r="J49">
-        <v>-162.8546163274109</v>
+        <v>4840936.454846466</v>
       </c>
       <c r="K49">
-        <v>-2250.192871442322</v>
+        <v>3982266.261301345</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,31 +2160,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>35.2203290314422</v>
+        <v>1116400.883265435</v>
       </c>
       <c r="G50">
-        <v>425.4396046378222</v>
+        <v>4841814.180691739</v>
       </c>
       <c r="H50">
-        <v>2020.460272261425</v>
+        <v>3986319.740558415</v>
       </c>
       <c r="I50">
-        <v>1649.823690515572</v>
+        <v>1117521.020117495</v>
       </c>
       <c r="J50">
-        <v>-190.4975138140042</v>
+        <v>4840887.803260191</v>
       </c>
       <c r="K50">
-        <v>-2688.142964875112</v>
+        <v>3981858.070933778</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,31 +2195,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>34.79863254101522</v>
+        <v>1116400.423143464</v>
       </c>
       <c r="G51">
-        <v>437.6144678519688</v>
+        <v>4841830.693553894</v>
       </c>
       <c r="H51">
-        <v>2027.917829567226</v>
+        <v>3986326.959281089</v>
       </c>
       <c r="I51">
-        <v>1784.846534898835</v>
+        <v>1117616.210805613</v>
       </c>
       <c r="J51">
-        <v>-218.1404113005975</v>
+        <v>4840839.151673917</v>
       </c>
       <c r="K51">
-        <v>-3142.346127031215</v>
+        <v>3981434.731931251</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,31 +2230,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>34.39172655595788</v>
+        <v>1116399.979159726</v>
       </c>
       <c r="G52">
-        <v>449.7893310661154</v>
+        <v>4841847.206416047</v>
       </c>
       <c r="H52">
-        <v>2035.200148295714</v>
+        <v>3986334.008377352</v>
       </c>
       <c r="I52">
-        <v>1923.194192606299</v>
+        <v>1117713.745476852</v>
       </c>
       <c r="J52">
-        <v>-245.7833087871908</v>
+        <v>4840790.500087643</v>
       </c>
       <c r="K52">
-        <v>-3612.802357910633</v>
+        <v>3980996.244293764</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,31 +2265,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>33.99876635763727</v>
+        <v>1116399.550392532</v>
       </c>
       <c r="G53">
-        <v>461.964194280262</v>
+        <v>4841863.719278202</v>
       </c>
       <c r="H53">
-        <v>2042.315275277482</v>
+        <v>3986340.895636325</v>
       </c>
       <c r="I53">
-        <v>2064.948534107295</v>
+        <v>1117813.68184964</v>
       </c>
       <c r="J53">
-        <v>-273.4262062737838</v>
+        <v>4840741.848501368</v>
       </c>
       <c r="K53">
-        <v>-4099.511657513362</v>
+        <v>3980542.608021317</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,31 +2300,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>33.61897325074835</v>
+        <v>1116399.135992229</v>
       </c>
       <c r="G54">
-        <v>474.1390574944085</v>
+        <v>4841880.232140357</v>
       </c>
       <c r="H54">
-        <v>2049.270715503221</v>
+        <v>3986347.628322648</v>
       </c>
       <c r="I54">
-        <v>2210.193445856152</v>
+        <v>1117916.079063669</v>
       </c>
       <c r="J54">
-        <v>-301.0691037603771</v>
+        <v>4840693.196915094</v>
       </c>
       <c r="K54">
-        <v>-4602.47402583941</v>
+        <v>3980073.823113909</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2326,31 +2335,31 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>205.7055575400856</v>
+        <v>1116578.39965647</v>
       </c>
       <c r="G55">
-        <v>-60.82523418201647</v>
+        <v>4841119.623023805</v>
       </c>
       <c r="H55">
-        <v>865.6370753808286</v>
+        <v>3985230.046869701</v>
       </c>
       <c r="I55">
-        <v>-1141.312460190138</v>
+        <v>1114862.542407023</v>
       </c>
       <c r="J55">
-        <v>2467.841191012431</v>
+        <v>4843219.819725954</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984364.462467809</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2361,31 +2370,31 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>205.7055575400856</v>
+        <v>1116578.39965647</v>
       </c>
       <c r="G56">
-        <v>-60.82523418201647</v>
+        <v>4841119.623023805</v>
       </c>
       <c r="H56">
-        <v>865.6370753808286</v>
+        <v>3985230.046869701</v>
       </c>
       <c r="I56">
-        <v>-1118.779913210707</v>
+        <v>1114892.156434964</v>
       </c>
       <c r="J56">
-        <v>2407.808994284814</v>
+        <v>4843171.168172424</v>
       </c>
       <c r="K56">
-        <v>391.7937026172174</v>
+        <v>3984668.258013077</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2396,31 +2405,31 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>205.7055575400856</v>
+        <v>1116578.39965647</v>
       </c>
       <c r="G57">
-        <v>-60.82523418201647</v>
+        <v>4841119.623023805</v>
       </c>
       <c r="H57">
-        <v>865.6370753808286</v>
+        <v>3985230.046869701</v>
       </c>
       <c r="I57">
-        <v>-1095.692522991471</v>
+        <v>1114922.499681098</v>
       </c>
       <c r="J57">
-        <v>2347.776797557197</v>
+        <v>4843122.516618893</v>
       </c>
       <c r="K57">
-        <v>764.0507753040807</v>
+        <v>3984956.90491991</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2431,31 +2440,31 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>205.7055575400856</v>
+        <v>1116578.39965647</v>
       </c>
       <c r="G58">
-        <v>-60.82523418201647</v>
+        <v>4841119.623023805</v>
       </c>
       <c r="H58">
-        <v>865.6370753808286</v>
+        <v>3985230.046869701</v>
       </c>
       <c r="I58">
-        <v>-1072.036627028095</v>
+        <v>1114953.590101753</v>
       </c>
       <c r="J58">
-        <v>2287.74460082958</v>
+        <v>4843073.865065363</v>
       </c>
       <c r="K58">
-        <v>1116.771218060593</v>
+        <v>3985230.403188306</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2466,31 +2475,31 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>205.7055575400856</v>
+        <v>1116578.39965647</v>
       </c>
       <c r="G59">
-        <v>-60.82523418201647</v>
+        <v>4841119.623023805</v>
       </c>
       <c r="H59">
-        <v>865.6370753808286</v>
+        <v>3985230.046869701</v>
       </c>
       <c r="I59">
-        <v>-1047.798226389647</v>
+        <v>1114985.446095413</v>
       </c>
       <c r="J59">
-        <v>2227.712404101962</v>
+        <v>4843025.213511834</v>
       </c>
       <c r="K59">
-        <v>1449.955030886751</v>
+        <v>3985488.752818266</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2501,31 +2510,31 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>205.7055575400856</v>
+        <v>1116578.39965647</v>
       </c>
       <c r="G60">
-        <v>-60.82523418201647</v>
+        <v>4841119.623023805</v>
       </c>
       <c r="H60">
-        <v>865.6370753808286</v>
+        <v>3985230.046869701</v>
       </c>
       <c r="I60">
-        <v>-1022.962977434397</v>
+        <v>1115018.086513611</v>
       </c>
       <c r="J60">
-        <v>2167.680207374345</v>
+        <v>4842976.561958304</v>
       </c>
       <c r="K60">
-        <v>1763.602213782559</v>
+        <v>3985731.953809791</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2536,31 +2545,31 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>205.7055575400856</v>
+        <v>1116578.39965647</v>
       </c>
       <c r="G61">
-        <v>-60.82523418201647</v>
+        <v>4841119.623023805</v>
       </c>
       <c r="H61">
-        <v>865.6370753808286</v>
+        <v>3985230.046869701</v>
       </c>
       <c r="I61">
-        <v>-997.5161833216331</v>
+        <v>1115051.530672078</v>
       </c>
       <c r="J61">
-        <v>2107.648010646728</v>
+        <v>4842927.910404773</v>
       </c>
       <c r="K61">
-        <v>2057.712766748013</v>
+        <v>3985960.00616288</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2571,31 +2580,31 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>205.7055575400856</v>
+        <v>1116578.39965647</v>
       </c>
       <c r="G62">
-        <v>-60.82523418201647</v>
+        <v>4841119.623023805</v>
       </c>
       <c r="H62">
-        <v>865.6370753808286</v>
+        <v>3985230.046869701</v>
       </c>
       <c r="I62">
-        <v>-971.4427853144642</v>
+        <v>1115085.79836218</v>
       </c>
       <c r="J62">
-        <v>2047.61581391911</v>
+        <v>4842879.258851244</v>
       </c>
       <c r="K62">
-        <v>2332.286689783115</v>
+        <v>3986172.909877533</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2606,31 +2615,31 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>205.7055575400856</v>
+        <v>1116578.39965647</v>
       </c>
       <c r="G63">
-        <v>-50.78127590086265</v>
+        <v>4841136.135826165</v>
       </c>
       <c r="H63">
-        <v>865.6370753808286</v>
+        <v>3985230.046869701</v>
       </c>
       <c r="I63">
-        <v>-944.7273538684552</v>
+        <v>1115120.909862624</v>
       </c>
       <c r="J63">
-        <v>1987.583617191493</v>
+        <v>4842830.607297714</v>
       </c>
       <c r="K63">
-        <v>2587.323982887864</v>
+        <v>3986370.66495375</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2641,31 +2650,31 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>159.6515095329746</v>
+        <v>1116529.719097243</v>
       </c>
       <c r="G64">
-        <v>-40.73731761970884</v>
+        <v>4841152.648628524</v>
       </c>
       <c r="H64">
-        <v>1066.459051948984</v>
+        <v>3985429.301362398</v>
       </c>
       <c r="I64">
-        <v>-917.3540795008342</v>
+        <v>1115156.885951465</v>
       </c>
       <c r="J64">
-        <v>1927.551420463876</v>
+        <v>4842781.955744185</v>
       </c>
       <c r="K64">
-        <v>2822.824646062259</v>
+        <v>3986553.271391531</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2676,31 +2685,31 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>132.5970666492398</v>
+        <v>1116501.121710777</v>
       </c>
       <c r="G65">
-        <v>-30.69335933855504</v>
+        <v>4841169.161430883</v>
       </c>
       <c r="H65">
-        <v>1186.078891618768</v>
+        <v>3985547.98752851</v>
       </c>
       <c r="I65">
-        <v>-889.3067634348615</v>
+        <v>1115193.747918396</v>
       </c>
       <c r="J65">
-        <v>1867.519223736259</v>
+        <v>4842733.304190653</v>
       </c>
       <c r="K65">
-        <v>3038.788679306304</v>
+        <v>3986720.729190877</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2711,31 +2720,31 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>115.5183174866744</v>
+        <v>1116483.06894243</v>
       </c>
       <c r="G66">
-        <v>-20.64940105740122</v>
+        <v>4841185.674233243</v>
       </c>
       <c r="H66">
-        <v>1271.563106234874</v>
+        <v>3985632.804509739</v>
       </c>
       <c r="I66">
-        <v>-860.5688080138212</v>
+        <v>1115231.517577351</v>
       </c>
       <c r="J66">
-        <v>1807.487027008641</v>
+        <v>4842684.652637124</v>
       </c>
       <c r="K66">
-        <v>3235.216082619996</v>
+        <v>3986873.038351786</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2746,31 +2755,31 @@
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>103.6076671474141</v>
+        <v>1116470.479015065</v>
       </c>
       <c r="G67">
-        <v>-10.60544277624741</v>
+        <v>4841202.187035603</v>
       </c>
       <c r="H67">
-        <v>1338.129618358235</v>
+        <v>3985698.851447581</v>
       </c>
       <c r="I67">
-        <v>-831.1232068789726</v>
+        <v>1115270.217279409</v>
       </c>
       <c r="J67">
-        <v>1747.454830281024</v>
+        <v>4842636.001083594</v>
       </c>
       <c r="K67">
-        <v>3412.106856003335</v>
+        <v>3987010.19887426</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2781,31 +2790,31 @@
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>94.72196531104476</v>
+        <v>1116461.086552225</v>
       </c>
       <c r="G68">
-        <v>-0.5614844950936085</v>
+        <v>4841218.699837962</v>
       </c>
       <c r="H68">
-        <v>1392.652755156598</v>
+        <v>3985752.949012742</v>
       </c>
       <c r="I68">
-        <v>-800.9525349056346</v>
+        <v>1115309.869926028</v>
       </c>
       <c r="J68">
-        <v>1687.422633553407</v>
+        <v>4842587.349530065</v>
       </c>
       <c r="K68">
-        <v>3569.460999456321</v>
+        <v>3987132.210758298</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2816,31 +2825,31 @@
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>87.77458732647811</v>
+        <v>1116453.742957903</v>
       </c>
       <c r="G69">
-        <v>9.482473786060204</v>
+        <v>4841235.212640321</v>
       </c>
       <c r="H69">
-        <v>1438.829872028726</v>
+        <v>3985798.765701502</v>
       </c>
       <c r="I69">
-        <v>-770.0389378914623</v>
+        <v>1115350.498982591</v>
       </c>
       <c r="J69">
-        <v>1627.390436825789</v>
+        <v>4842538.697976533</v>
       </c>
       <c r="K69">
-        <v>3707.278512978955</v>
+        <v>3987239.0740039</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2851,31 +2860,31 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>82.15365268178564</v>
+        <v>1116447.801455392</v>
       </c>
       <c r="G70">
-        <v>19.52643206721402</v>
+        <v>4841251.725442681</v>
       </c>
       <c r="H70">
-        <v>1478.880110808961</v>
+        <v>3985838.503334539</v>
       </c>
       <c r="I70">
-        <v>-738.3641219908037</v>
+        <v>1115392.128492292</v>
       </c>
       <c r="J70">
-        <v>1567.358240098172</v>
+        <v>4842490.046423004</v>
       </c>
       <c r="K70">
-        <v>3825.559396571236</v>
+        <v>3987330.788611066</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2886,31 +2895,31 @@
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>77.486274075475</v>
+        <v>1116442.867891232</v>
       </c>
       <c r="G71">
-        <v>29.57039034836782</v>
+        <v>4841268.23824504</v>
       </c>
       <c r="H71">
-        <v>1514.240508532656</v>
+        <v>3985873.587732323</v>
       </c>
       <c r="I71">
-        <v>-705.9093428888879</v>
+        <v>1115434.783090372</v>
       </c>
       <c r="J71">
-        <v>1507.326043370555</v>
+        <v>4842441.394869474</v>
       </c>
       <c r="K71">
-        <v>3924.303650233166</v>
+        <v>3987407.354579796</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2921,31 +2930,31 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>73.53102188323291</v>
+        <v>1116438.687066811</v>
       </c>
       <c r="G72">
-        <v>39.61434862952164</v>
+        <v>4841284.751047399</v>
       </c>
       <c r="H72">
-        <v>1545.89518002855</v>
+        <v>3985904.995328336</v>
       </c>
       <c r="I72">
-        <v>-672.6553947094363</v>
+        <v>1115478.488018688</v>
       </c>
       <c r="J72">
-        <v>1447.293846642938</v>
+        <v>4842392.743315944</v>
       </c>
       <c r="K72">
-        <v>4003.511273964743</v>
+        <v>3987468.771910091</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2956,31 +2965,31 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>70.12395799546903</v>
+        <v>1116435.085694455</v>
       </c>
       <c r="G73">
-        <v>49.65830691067544</v>
+        <v>4841301.263849759</v>
       </c>
       <c r="H73">
-        <v>1574.547685206984</v>
+        <v>3985933.42419096</v>
       </c>
       <c r="I73">
-        <v>-638.5825986491373</v>
+        <v>1115523.269140657</v>
       </c>
       <c r="J73">
-        <v>1387.26164991532</v>
+        <v>4842344.091762414</v>
       </c>
       <c r="K73">
-        <v>4063.182267765967</v>
+        <v>3987515.04060195</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2991,31 +3000,31 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>67.1494151725509</v>
+        <v>1116431.941510299</v>
       </c>
       <c r="G74">
-        <v>59.70226519182925</v>
+        <v>4841317.776652119</v>
       </c>
       <c r="H74">
-        <v>1600.718477082865</v>
+        <v>3985959.3907109</v>
       </c>
       <c r="I74">
-        <v>-603.670791332251</v>
+        <v>1115569.152956555</v>
       </c>
       <c r="J74">
-        <v>1327.229453187703</v>
+        <v>4842295.440208884</v>
       </c>
       <c r="K74">
-        <v>4103.316631636838</v>
+        <v>3987546.160655372</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3026,31 +3035,31 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>64.52317499766467</v>
+        <v>1116429.16549286</v>
       </c>
       <c r="G75">
-        <v>69.74622347298306</v>
+        <v>4841334.289454478</v>
       </c>
       <c r="H75">
-        <v>1624.803400294886</v>
+        <v>3985983.287643089</v>
       </c>
       <c r="I75">
-        <v>-567.8993128784601</v>
+        <v>1115616.166619208</v>
       </c>
       <c r="J75">
-        <v>1267.197256460086</v>
+        <v>4842246.788655355</v>
       </c>
       <c r="K75">
-        <v>4123.914365577357</v>
+        <v>3987562.132070359</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3061,31 +3070,31 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>62.18228389683827</v>
+        <v>1116426.691098256</v>
       </c>
       <c r="G76">
-        <v>79.79018175413687</v>
+        <v>4841350.802256837</v>
       </c>
       <c r="H76">
-        <v>1647.110546534849</v>
+        <v>3986005.420674461</v>
       </c>
       <c r="I76">
-        <v>-531.2469946769013</v>
+        <v>1115664.337950052</v>
       </c>
       <c r="J76">
-        <v>1207.165059732468</v>
+        <v>4842198.137101824</v>
       </c>
       <c r="K76">
-        <v>4124.975469587524</v>
+        <v>3987562.95484691</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3096,31 +3105,31 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>60.0786235481567</v>
+        <v>1116424.467463926</v>
       </c>
       <c r="G77">
-        <v>89.83414003529069</v>
+        <v>4841367.315059197</v>
       </c>
       <c r="H77">
-        <v>1667.884417265622</v>
+        <v>3986026.032398061</v>
       </c>
       <c r="I77">
-        <v>-493.6921468591437</v>
+        <v>1115713.695455601</v>
       </c>
       <c r="J77">
-        <v>1147.132863004851</v>
+        <v>4842149.485548294</v>
       </c>
       <c r="K77">
-        <v>4106.499943667337</v>
+        <v>3987548.628985025</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3131,31 +3140,31 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>58.174704834618</v>
+        <v>1116422.454962708</v>
       </c>
       <c r="G78">
-        <v>99.87809831644449</v>
+        <v>4841383.827861556</v>
       </c>
       <c r="H78">
-        <v>1687.322302901993</v>
+        <v>3986045.318564385</v>
       </c>
       <c r="I78">
-        <v>-455.2125454636999</v>
+        <v>1115764.268344316</v>
       </c>
       <c r="J78">
-        <v>1087.100666277234</v>
+        <v>4842100.833994764</v>
       </c>
       <c r="K78">
-        <v>4068.487787816799</v>
+        <v>3987519.154484704</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3166,31 +3175,31 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>56.44083134339734</v>
+        <v>1116420.622204572</v>
       </c>
       <c r="G79">
-        <v>109.9220565975983</v>
+        <v>4841400.340663916</v>
       </c>
       <c r="H79">
-        <v>1705.585705969776</v>
+        <v>3986063.439415376</v>
       </c>
       <c r="I79">
-        <v>-415.7854192844777</v>
+        <v>1115816.08654389</v>
       </c>
       <c r="J79">
-        <v>1027.068469549617</v>
+        <v>4842052.182441235</v>
       </c>
       <c r="K79">
-        <v>4010.939002035908</v>
+        <v>3987474.531345948</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3201,31 +3210,31 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>54.8531353618975</v>
+        <v>1116418.943960604</v>
       </c>
       <c r="G80">
-        <v>119.9660148787521</v>
+        <v>4841416.853466275</v>
       </c>
       <c r="H80">
-        <v>1722.808505528392</v>
+        <v>3986080.527785123</v>
       </c>
       <c r="I80">
-        <v>-375.3874363953832</v>
+        <v>1115869.180718956</v>
       </c>
       <c r="J80">
-        <v>967.0362728219991</v>
+        <v>4842003.530887703</v>
       </c>
       <c r="K80">
-        <v>3933.853586324664</v>
+        <v>3987414.759568756</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3236,31 +3245,31 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>53.39218627146708</v>
+        <v>1116417.399692037</v>
       </c>
       <c r="G81">
-        <v>130.0099731599059</v>
+        <v>4841433.366268635</v>
       </c>
       <c r="H81">
-        <v>1739.102918459508</v>
+        <v>3986096.695014616</v>
       </c>
       <c r="I81">
-        <v>-333.9946903431077</v>
+        <v>1115923.582289238</v>
       </c>
       <c r="J81">
-        <v>907.004076094382</v>
+        <v>4841954.879334174</v>
       </c>
       <c r="K81">
-        <v>3837.231540683068</v>
+        <v>3987339.839153127</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3271,31 +3280,31 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>52.04198425877969</v>
+        <v>1116415.972486571</v>
       </c>
       <c r="G82">
-        <v>140.0539314410597</v>
+        <v>4841449.879070994</v>
       </c>
       <c r="H82">
-        <v>1754.56393464538</v>
+        <v>3986112.035352309</v>
       </c>
       <c r="I82">
-        <v>-291.5826859999225</v>
+        <v>1115979.323448139</v>
       </c>
       <c r="J82">
-        <v>846.9718793667645</v>
+        <v>4841906.227780644</v>
       </c>
       <c r="K82">
-        <v>3721.072865111119</v>
+        <v>3987249.770099063</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3306,31 +3315,31 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>50.78921938787631</v>
+        <v>1116414.648275191</v>
       </c>
       <c r="G83">
-        <v>150.0978897222135</v>
+        <v>4841466.391873353</v>
       </c>
       <c r="H83">
-        <v>1769.272672116683</v>
+        <v>3986126.629283078</v>
       </c>
       <c r="I83">
-        <v>-248.1263250681151</v>
+        <v>1116036.437181797</v>
       </c>
       <c r="J83">
-        <v>786.9396826391471</v>
+        <v>4841857.576227115</v>
       </c>
       <c r="K83">
-        <v>3585.377559608818</v>
+        <v>3987144.552406563</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3341,31 +3350,31 @@
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>49.6227171689653</v>
+        <v>1116413.415246113</v>
       </c>
       <c r="G84">
-        <v>160.1418480033674</v>
+        <v>4841482.904675713</v>
       </c>
       <c r="H84">
-        <v>1783.298953170397</v>
+        <v>3986140.546084235</v>
       </c>
       <c r="I84">
-        <v>-203.599891227481</v>
+        <v>1116094.957288603</v>
       </c>
       <c r="J84">
-        <v>726.90748591153</v>
+        <v>4841808.924673583</v>
       </c>
       <c r="K84">
-        <v>3430.145624176165</v>
+        <v>3987024.186075628</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3376,31 +3385,31 @@
         <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>48.53301760567712</v>
+        <v>1116412.263399827</v>
       </c>
       <c r="G85">
-        <v>170.1858062845212</v>
+        <v>4841499.417478072</v>
       </c>
       <c r="H85">
-        <v>1796.703308918184</v>
+        <v>3986153.845814425</v>
       </c>
       <c r="I85">
-        <v>-157.9770349170894</v>
+        <v>1116154.918399201</v>
       </c>
       <c r="J85">
-        <v>666.8752891839126</v>
+        <v>4841760.273120054</v>
       </c>
       <c r="K85">
-        <v>3255.377058813158</v>
+        <v>3986888.671106256</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3411,31 +3420,31 @@
         <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>47.51205135564737</v>
+        <v>1116411.184206788</v>
       </c>
       <c r="G86">
-        <v>180.229764565675</v>
+        <v>4841515.930280432</v>
       </c>
       <c r="H86">
-        <v>1809.538557999763</v>
+        <v>3986166.580880019</v>
       </c>
       <c r="I86">
-        <v>-111.2307577423122</v>
+        <v>1116216.355996985</v>
       </c>
       <c r="J86">
-        <v>606.8430924562955</v>
+        <v>4841711.621566525</v>
       </c>
       <c r="K86">
-        <v>3061.0718635198</v>
+        <v>3986738.007498448</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3446,31 +3455,31 @@
         <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>46.55288760548244</v>
+        <v>1116410.170340912</v>
       </c>
       <c r="G87">
-        <v>190.2737228468288</v>
+        <v>4841532.443082792</v>
       </c>
       <c r="H87">
-        <v>1821.851063605848</v>
+        <v>3986178.797282328</v>
       </c>
       <c r="I87">
-        <v>-63.33339649789257</v>
+        <v>1116279.306439093</v>
       </c>
       <c r="J87">
-        <v>546.8108957286781</v>
+        <v>4841662.970012994</v>
       </c>
       <c r="K87">
-        <v>2847.230038296089</v>
+        <v>3986572.195252205</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3481,31 +3490,31 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>45.64953562607326</v>
+        <v>1116409.215469811</v>
       </c>
       <c r="G88">
-        <v>200.3176811279826</v>
+        <v>4841548.95588515</v>
       </c>
       <c r="H88">
-        <v>1833.68174440019</v>
+        <v>3986190.535620633</v>
       </c>
       <c r="I88">
-        <v>-14.25660679759365</v>
+        <v>1116343.806977924</v>
       </c>
       <c r="J88">
-        <v>486.7786990010607</v>
+        <v>4841614.318459464</v>
       </c>
       <c r="K88">
-        <v>2613.851583142025</v>
+        <v>3986391.234367526</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3516,31 +3525,31 @@
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>44.79678700988512</v>
+        <v>1116408.314088036</v>
       </c>
       <c r="G89">
-        <v>210.3616394091364</v>
+        <v>4841565.46868751</v>
       </c>
       <c r="H89">
-        <v>1845.066894986825</v>
+        <v>3986201.831906245</v>
       </c>
       <c r="I89">
-        <v>36.02865369925664</v>
+        <v>1116409.895783184</v>
       </c>
       <c r="J89">
-        <v>426.7465022734436</v>
+        <v>4841565.666905934</v>
       </c>
       <c r="K89">
-        <v>2360.936498057609</v>
+        <v>3986195.124844411</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3551,31 +3560,31 @@
         <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>43.99008909175228</v>
+        <v>1116407.46138328</v>
       </c>
       <c r="G90">
-        <v>220.4055976902902</v>
+        <v>4841581.98148987</v>
       </c>
       <c r="H90">
-        <v>1856.038857420961</v>
+        <v>3986212.718228778</v>
       </c>
       <c r="I90">
-        <v>87.55214247425042</v>
+        <v>1116477.611964473</v>
       </c>
       <c r="J90">
-        <v>366.7143055458262</v>
+        <v>4841517.015352405</v>
       </c>
       <c r="K90">
-        <v>2088.48478304284</v>
+        <v>3985983.86668286</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3586,31 +3595,31 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>43.22544252397017</v>
+        <v>1116406.653128107</v>
       </c>
       <c r="G91">
-        <v>230.449555971444</v>
+        <v>4841598.494292228</v>
       </c>
       <c r="H91">
-        <v>1866.62657508142</v>
+        <v>3986223.223305699</v>
       </c>
       <c r="I91">
-        <v>140.3443497595884</v>
+        <v>1116546.995594429</v>
       </c>
       <c r="J91">
-        <v>306.682108818209</v>
+        <v>4841468.363798874</v>
       </c>
       <c r="K91">
-        <v>1796.49643809772</v>
+        <v>3985757.459882873</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3621,31 +3630,31 @@
         <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>42.49931774285494</v>
+        <v>1116405.885591659</v>
       </c>
       <c r="G92">
-        <v>240.4935142525978</v>
+        <v>4841615.007094588</v>
       </c>
       <c r="H92">
-        <v>1876.856052799905</v>
+        <v>3986233.372938863</v>
       </c>
       <c r="I92">
-        <v>194.4365165813871</v>
+        <v>1116618.087732441</v>
       </c>
       <c r="J92">
-        <v>246.6499120905916</v>
+        <v>4841419.712245344</v>
       </c>
       <c r="K92">
-        <v>1484.971463222245</v>
+        <v>3985515.90444445</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3656,31 +3665,31 @@
         <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>41.80858634372107</v>
+        <v>1116405.155467116</v>
       </c>
       <c r="G93">
-        <v>250.5374725337516</v>
+        <v>4841631.519896949</v>
       </c>
       <c r="H93">
-        <v>1886.750741664655</v>
+        <v>3986243.190396314</v>
       </c>
       <c r="I93">
-        <v>249.860653247292</v>
+        <v>1116690.930448948</v>
       </c>
       <c r="J93">
-        <v>186.6177153629742</v>
+        <v>4841371.060691814</v>
       </c>
       <c r="K93">
-        <v>1153.909858416419</v>
+        <v>3985259.200367592</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3691,31 +3700,31 @@
         <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>41.15046431948254</v>
+        <v>1116404.459811694</v>
       </c>
       <c r="G94">
-        <v>260.5814308149054</v>
+        <v>4841648.032699307</v>
       </c>
       <c r="H94">
-        <v>1896.331862828</v>
+        <v>3986252.696733565</v>
       </c>
       <c r="I94">
-        <v>306.6495582893234</v>
+        <v>1116765.566850334</v>
       </c>
       <c r="J94">
-        <v>126.5855186353571</v>
+        <v>4841322.409138285</v>
       </c>
       <c r="K94">
-        <v>803.3116236802407</v>
+        <v>3984987.347652297</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3726,31 +3735,31 @@
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>40.52246481355308</v>
+        <v>1116403.79599671</v>
       </c>
       <c r="G95">
-        <v>270.6253890960592</v>
+        <v>4841664.545501667</v>
       </c>
       <c r="H95">
-        <v>1905.618681564536</v>
+        <v>3986261.911065521</v>
       </c>
       <c r="I95">
-        <v>364.8368378731812</v>
+        <v>1116842.041104441</v>
       </c>
       <c r="J95">
-        <v>66.5533219077397</v>
+        <v>4841273.757584754</v>
       </c>
       <c r="K95">
-        <v>433.1767590137089</v>
+        <v>3984700.346298567</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3761,31 +3770,31 @@
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>39.92235855851661</v>
+        <v>1116403.161665759</v>
       </c>
       <c r="G96">
-        <v>280.6693473772131</v>
+        <v>4841681.058304027</v>
       </c>
       <c r="H96">
-        <v>1914.628740479264</v>
+        <v>3986270.85079786</v>
       </c>
       <c r="I96">
-        <v>424.4569256854754</v>
+        <v>1116920.3984667</v>
       </c>
       <c r="J96">
-        <v>6.521125180122298</v>
+        <v>4841225.106031224</v>
       </c>
       <c r="K96">
-        <v>43.50526441682484</v>
+        <v>3984398.196306401</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3796,31 +3805,31 @@
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>39.34814056578479</v>
+        <v>1116402.554699505</v>
       </c>
       <c r="G97">
-        <v>290.7133056583669</v>
+        <v>4841697.571106385</v>
       </c>
       <c r="H97">
-        <v>1923.37805896139</v>
+        <v>3986279.531824933</v>
       </c>
       <c r="I97">
-        <v>485.5451033106719</v>
+        <v>1117000.685306917</v>
       </c>
       <c r="J97">
-        <v>-53.51107154749482</v>
+        <v>4841176.454477695</v>
       </c>
       <c r="K97">
-        <v>-365.7028601104105</v>
+        <v>3984080.897675799</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3831,31 +3840,31 @@
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>38.79800193181438</v>
+        <v>1116401.973185881</v>
       </c>
       <c r="G98">
-        <v>300.7572639395207</v>
+        <v>4841714.083908745</v>
       </c>
       <c r="H98">
-        <v>1931.881304581933</v>
+        <v>3986287.968699828</v>
       </c>
       <c r="I98">
-        <v>548.1375211097962</v>
+        <v>1117082.949136712</v>
       </c>
       <c r="J98">
-        <v>-113.5432682751122</v>
+        <v>4841127.802924165</v>
       </c>
       <c r="K98">
-        <v>-794.4476145679996</v>
+        <v>3983748.450406762</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3866,31 +3875,31 @@
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>38.27030585750117</v>
+        <v>1116401.415394739</v>
       </c>
       <c r="G99">
-        <v>310.8012222206745</v>
+        <v>4841730.596711105</v>
       </c>
       <c r="H99">
-        <v>1940.151941041655</v>
+        <v>3986296.174781156</v>
       </c>
       <c r="I99">
-        <v>612.2712196132559</v>
+        <v>1117167.238637634</v>
       </c>
       <c r="J99">
-        <v>-173.5754650027296</v>
+        <v>4841079.151370634</v>
       </c>
       <c r="K99">
-        <v>-1242.728998955942</v>
+        <v>3983400.854499288</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3901,31 +3910,31 @@
         <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>37.76356715650686</v>
+        <v>1116400.879756193</v>
       </c>
       <c r="G100">
-        <v>320.8451805018283</v>
+        <v>4841747.109513464</v>
       </c>
       <c r="H100">
-        <v>1948.202356416914</v>
+        <v>3986304.162360299</v>
       </c>
       <c r="I100">
-        <v>677.9841514404425</v>
+        <v>1117253.603689972</v>
       </c>
       <c r="J100">
-        <v>-233.607661730347</v>
+        <v>4841030.499817104</v>
       </c>
       <c r="K100">
-        <v>-1710.547013274237</v>
+        <v>3983038.109953379</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3936,31 +3945,31 @@
         <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>37.27643466819526</v>
+        <v>1116400.364842022</v>
       </c>
       <c r="G101">
-        <v>330.8891387829821</v>
+        <v>4841763.622315824</v>
       </c>
       <c r="H101">
-        <v>1956.043974770367</v>
+        <v>3986311.942772153</v>
       </c>
       <c r="I101">
-        <v>745.3152037590843</v>
+        <v>1117342.095402269</v>
       </c>
       <c r="J101">
-        <v>-293.6398584579639</v>
+        <v>4840981.848263575</v>
       </c>
       <c r="K101">
-        <v>-2197.90165752288</v>
+        <v>3982660.216769034</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3971,31 +3980,31 @@
         <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>36.80767610091688</v>
+        <v>1116399.869349656</v>
       </c>
       <c r="G102">
-        <v>340.9330970641359</v>
+        <v>4841780.135118183</v>
       </c>
       <c r="H102">
-        <v>1963.687353650556</v>
+        <v>3986319.526491859</v>
       </c>
       <c r="I102">
-        <v>814.3042212976412</v>
+        <v>1117432.76614157</v>
       </c>
       <c r="J102">
-        <v>-353.6720551855813</v>
+        <v>4840933.196710045</v>
       </c>
       <c r="K102">
-        <v>-2704.792931701879</v>
+        <v>3982267.174946252</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4006,31 +4015,31 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>36.35616491852502</v>
+        <v>1116399.392088312</v>
       </c>
       <c r="G103">
-        <v>350.9770553452897</v>
+        <v>4841796.647920542</v>
       </c>
       <c r="H103">
-        <v>1971.14226956856</v>
+        <v>3986326.923219622</v>
       </c>
       <c r="I103">
-        <v>884.9920299243522</v>
+        <v>1117525.669564411</v>
       </c>
       <c r="J103">
-        <v>-413.7042519131987</v>
+        <v>4840884.545156514</v>
       </c>
       <c r="K103">
-        <v>-3231.220835811232</v>
+        <v>3981858.984485035</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4041,31 +4050,31 @@
         <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>35.92086895244134</v>
+        <v>1116398.931966955</v>
       </c>
       <c r="G104">
-        <v>361.0210136264435</v>
+        <v>4841813.160722902</v>
       </c>
       <c r="H104">
-        <v>1978.417793188107</v>
+        <v>3986334.141955303</v>
       </c>
       <c r="I104">
-        <v>957.4204608069044</v>
+        <v>1117620.86064857</v>
       </c>
       <c r="J104">
-        <v>-473.7364486408161</v>
+        <v>4840835.893602984</v>
       </c>
       <c r="K104">
-        <v>-3777.185369850936</v>
+        <v>3981435.645385383</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4076,31 +4085,31 @@
         <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>35.50084047724247</v>
+        <v>1116398.48798381</v>
       </c>
       <c r="G105">
-        <v>371.0649719075974</v>
+        <v>4841829.673525261</v>
       </c>
       <c r="H105">
-        <v>1985.522355679765</v>
+        <v>3986341.191064267</v>
       </c>
       <c r="I105">
-        <v>1031.632375167006</v>
+        <v>1117718.395725602</v>
       </c>
       <c r="J105">
-        <v>-533.7686453684335</v>
+        <v>4840787.242049455</v>
       </c>
       <c r="K105">
-        <v>-4342.686533820993</v>
+        <v>3980997.157647294</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4111,31 +4120,31 @@
         <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>35.09520753259262</v>
+        <v>1116398.059217188</v>
       </c>
       <c r="G106">
-        <v>381.1089301887512</v>
+        <v>4841846.186327621</v>
       </c>
       <c r="H106">
-        <v>1992.463807456697</v>
+        <v>3986348.07833565</v>
       </c>
       <c r="I106">
-        <v>1107.671689644514</v>
+        <v>1117818.332514176</v>
       </c>
       <c r="J106">
-        <v>-593.8008420960504</v>
+        <v>4840738.590495924</v>
       </c>
       <c r="K106">
-        <v>-4927.724327721398</v>
+        <v>3980543.521270769</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4146,31 +4155,1886 @@
         <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>34.70316631069927</v>
+        <v>1116397.644817439</v>
       </c>
       <c r="G107">
-        <v>391.152888469905</v>
+        <v>4841862.699129981</v>
       </c>
       <c r="H107">
-        <v>1999.249470318094</v>
+        <v>3986354.811034104</v>
       </c>
       <c r="I107">
-        <v>1185.583402286145</v>
+        <v>1117920.730154228</v>
       </c>
       <c r="J107">
-        <v>-653.8330388236677</v>
+        <v>4840689.938942394</v>
       </c>
       <c r="K107">
-        <v>-5532.29875155216</v>
+        <v>3980074.736255809</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>15</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>1116578.101007881</v>
+      </c>
+      <c r="G108">
+        <v>4841118.406125</v>
+      </c>
+      <c r="H108">
+        <v>3985221.355117822</v>
+      </c>
+      <c r="I108">
+        <v>1114861.212427234</v>
+      </c>
+      <c r="J108">
+        <v>4843219.803596594</v>
+      </c>
+      <c r="K108">
+        <v>3984372.932023299</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>15</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>1116578.101007881</v>
+      </c>
+      <c r="G109">
+        <v>4841118.406125</v>
+      </c>
+      <c r="H109">
+        <v>3985221.355117822</v>
+      </c>
+      <c r="I109">
+        <v>1114890.826419846</v>
+      </c>
+      <c r="J109">
+        <v>4843171.152043226</v>
+      </c>
+      <c r="K109">
+        <v>3984676.728214345</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>15</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>1116578.101007881</v>
+      </c>
+      <c r="G110">
+        <v>4841118.406125</v>
+      </c>
+      <c r="H110">
+        <v>3985221.355117822</v>
+      </c>
+      <c r="I110">
+        <v>1114921.169629782</v>
+      </c>
+      <c r="J110">
+        <v>4843122.500489858</v>
+      </c>
+      <c r="K110">
+        <v>3984965.375734753</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>15</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>1116578.101007881</v>
+      </c>
+      <c r="G111">
+        <v>4841118.406125</v>
+      </c>
+      <c r="H111">
+        <v>3985221.355117822</v>
+      </c>
+      <c r="I111">
+        <v>1114952.260013347</v>
+      </c>
+      <c r="J111">
+        <v>4843073.84893649</v>
+      </c>
+      <c r="K111">
+        <v>3985238.874584524</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>15</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>1116578.101007881</v>
+      </c>
+      <c r="G112">
+        <v>4841118.406125</v>
+      </c>
+      <c r="H112">
+        <v>3985221.355117822</v>
+      </c>
+      <c r="I112">
+        <v>1114984.115969005</v>
+      </c>
+      <c r="J112">
+        <v>4843025.197383123</v>
+      </c>
+      <c r="K112">
+        <v>3985497.224763658</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>15</v>
+      </c>
+      <c r="B113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>1116578.101007881</v>
+      </c>
+      <c r="G113">
+        <v>4841118.406125</v>
+      </c>
+      <c r="H113">
+        <v>3985221.355117822</v>
+      </c>
+      <c r="I113">
+        <v>1115016.756348265</v>
+      </c>
+      <c r="J113">
+        <v>4842976.545829754</v>
+      </c>
+      <c r="K113">
+        <v>3985740.426272155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>15</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>1116578.101007881</v>
+      </c>
+      <c r="G114">
+        <v>4841118.406125</v>
+      </c>
+      <c r="H114">
+        <v>3985221.355117822</v>
+      </c>
+      <c r="I114">
+        <v>1115050.200466834</v>
+      </c>
+      <c r="J114">
+        <v>4842927.894276386</v>
+      </c>
+      <c r="K114">
+        <v>3985968.479110014</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>15</v>
+      </c>
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>1116578.101007881</v>
+      </c>
+      <c r="G115">
+        <v>4841118.406125</v>
+      </c>
+      <c r="H115">
+        <v>3985221.355117822</v>
+      </c>
+      <c r="I115">
+        <v>1115084.468116056</v>
+      </c>
+      <c r="J115">
+        <v>4842879.242723018</v>
+      </c>
+      <c r="K115">
+        <v>3986181.383277236</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>15</v>
+      </c>
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>1116578.101007881</v>
+      </c>
+      <c r="G116">
+        <v>4841134.918923209</v>
+      </c>
+      <c r="H116">
+        <v>3985221.355117822</v>
+      </c>
+      <c r="I116">
+        <v>1115119.579574614</v>
+      </c>
+      <c r="J116">
+        <v>4842830.591169651</v>
+      </c>
+      <c r="K116">
+        <v>3986379.138773821</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>15</v>
+      </c>
+      <c r="B117" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>1116529.420461674</v>
+      </c>
+      <c r="G117">
+        <v>4841151.431721417</v>
+      </c>
+      <c r="H117">
+        <v>3985420.609175947</v>
+      </c>
+      <c r="I117">
+        <v>1115155.555620537</v>
+      </c>
+      <c r="J117">
+        <v>4842781.939616282</v>
+      </c>
+      <c r="K117">
+        <v>3986561.745599768</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>15</v>
+      </c>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>1116500.823082857</v>
+      </c>
+      <c r="G118">
+        <v>4841167.944519626</v>
+      </c>
+      <c r="H118">
+        <v>3985539.295083206</v>
+      </c>
+      <c r="I118">
+        <v>1115192.417543494</v>
+      </c>
+      <c r="J118">
+        <v>4842733.288062914</v>
+      </c>
+      <c r="K118">
+        <v>3986729.203755078</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>15</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" t="s">
+        <v>19</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>1116482.770319338</v>
+      </c>
+      <c r="G119">
+        <v>4841184.457317835</v>
+      </c>
+      <c r="H119">
+        <v>3985624.111879449</v>
+      </c>
+      <c r="I119">
+        <v>1115230.187157391</v>
+      </c>
+      <c r="J119">
+        <v>4842684.636509546</v>
+      </c>
+      <c r="K119">
+        <v>3986881.513239751</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>15</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>1116470.180395341</v>
+      </c>
+      <c r="G120">
+        <v>4841200.970116043</v>
+      </c>
+      <c r="H120">
+        <v>3985690.158673244</v>
+      </c>
+      <c r="I120">
+        <v>1115268.886813283</v>
+      </c>
+      <c r="J120">
+        <v>4842635.984956179</v>
+      </c>
+      <c r="K120">
+        <v>3987018.674053787</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>15</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>1116460.787935013</v>
+      </c>
+      <c r="G121">
+        <v>4841217.482914252</v>
+      </c>
+      <c r="H121">
+        <v>3985744.256120418</v>
+      </c>
+      <c r="I121">
+        <v>1115308.539412597</v>
+      </c>
+      <c r="J121">
+        <v>4842587.333402811</v>
+      </c>
+      <c r="K121">
+        <v>3987140.686197185</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>15</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>1116453.444342656</v>
+      </c>
+      <c r="G122">
+        <v>4841233.99571246</v>
+      </c>
+      <c r="H122">
+        <v>3985790.072709252</v>
+      </c>
+      <c r="I122">
+        <v>1115349.168420691</v>
+      </c>
+      <c r="J122">
+        <v>4842538.681849442</v>
+      </c>
+      <c r="K122">
+        <v>3987247.549669946</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>15</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>1116447.502841734</v>
+      </c>
+      <c r="G123">
+        <v>4841250.50851067</v>
+      </c>
+      <c r="H123">
+        <v>3985829.810255621</v>
+      </c>
+      <c r="I123">
+        <v>1115390.797880731</v>
+      </c>
+      <c r="J123">
+        <v>4842490.030296074</v>
+      </c>
+      <c r="K123">
+        <v>3987339.26447207</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>15</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>1116442.569278893</v>
+      </c>
+      <c r="G124">
+        <v>4841267.021308878</v>
+      </c>
+      <c r="H124">
+        <v>3985864.894576888</v>
+      </c>
+      <c r="I124">
+        <v>1115433.452427926</v>
+      </c>
+      <c r="J124">
+        <v>4842441.378742707</v>
+      </c>
+      <c r="K124">
+        <v>3987415.830603556</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>15</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>1116438.38845559</v>
+      </c>
+      <c r="G125">
+        <v>4841283.534107086</v>
+      </c>
+      <c r="H125">
+        <v>3985896.3021044</v>
+      </c>
+      <c r="I125">
+        <v>1115477.157304104</v>
+      </c>
+      <c r="J125">
+        <v>4842392.727189339</v>
+      </c>
+      <c r="K125">
+        <v>3987477.248064405</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>15</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>1116434.787084197</v>
+      </c>
+      <c r="G126">
+        <v>4841300.046905296</v>
+      </c>
+      <c r="H126">
+        <v>3985924.730905022</v>
+      </c>
+      <c r="I126">
+        <v>1115521.93837265</v>
+      </c>
+      <c r="J126">
+        <v>4842344.075635971</v>
+      </c>
+      <c r="K126">
+        <v>3987523.516854617</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>15</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>1116431.642900882</v>
+      </c>
+      <c r="G127">
+        <v>4841316.559703505</v>
+      </c>
+      <c r="H127">
+        <v>3985950.697368328</v>
+      </c>
+      <c r="I127">
+        <v>1115567.822133812</v>
+      </c>
+      <c r="J127">
+        <v>4842295.424082602</v>
+      </c>
+      <c r="K127">
+        <v>3987554.636974192</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>15</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>1116428.866884186</v>
+      </c>
+      <c r="G128">
+        <v>4841333.072501712</v>
+      </c>
+      <c r="H128">
+        <v>3985974.594248399</v>
+      </c>
+      <c r="I128">
+        <v>1115614.83574038</v>
+      </c>
+      <c r="J128">
+        <v>4842246.772529235</v>
+      </c>
+      <c r="K128">
+        <v>3987570.608423129</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>15</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>1116426.392490244</v>
+      </c>
+      <c r="G129">
+        <v>4841349.585299921</v>
+      </c>
+      <c r="H129">
+        <v>3985996.727231499</v>
+      </c>
+      <c r="I129">
+        <v>1115663.007013757</v>
+      </c>
+      <c r="J129">
+        <v>4842198.120975867</v>
+      </c>
+      <c r="K129">
+        <v>3987571.431201429</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>15</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>1116424.168856509</v>
+      </c>
+      <c r="G130">
+        <v>4841366.098098131</v>
+      </c>
+      <c r="H130">
+        <v>3986017.338910145</v>
+      </c>
+      <c r="I130">
+        <v>1115712.364460425</v>
+      </c>
+      <c r="J130">
+        <v>4842149.469422499</v>
+      </c>
+      <c r="K130">
+        <v>3987557.105309092</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>15</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>1116422.156355829</v>
+      </c>
+      <c r="G131">
+        <v>4841382.610896339</v>
+      </c>
+      <c r="H131">
+        <v>3986036.625034406</v>
+      </c>
+      <c r="I131">
+        <v>1115762.937288809</v>
+      </c>
+      <c r="J131">
+        <v>4842100.817869131</v>
+      </c>
+      <c r="K131">
+        <v>3987527.630746117</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>15</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>1116420.323598183</v>
+      </c>
+      <c r="G132">
+        <v>4841399.123694547</v>
+      </c>
+      <c r="H132">
+        <v>3986054.745845876</v>
+      </c>
+      <c r="I132">
+        <v>1115814.755426566</v>
+      </c>
+      <c r="J132">
+        <v>4842052.166315763</v>
+      </c>
+      <c r="K132">
+        <v>3987483.007512505</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>15</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>1116418.645354664</v>
+      </c>
+      <c r="G133">
+        <v>4841415.636492756</v>
+      </c>
+      <c r="H133">
+        <v>3986071.834178353</v>
+      </c>
+      <c r="I133">
+        <v>1115867.849538293</v>
+      </c>
+      <c r="J133">
+        <v>4842003.514762394</v>
+      </c>
+      <c r="K133">
+        <v>3987423.235608256</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>15</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>1116417.10108651</v>
+      </c>
+      <c r="G134">
+        <v>4841432.149290965</v>
+      </c>
+      <c r="H134">
+        <v>3986088.001372585</v>
+      </c>
+      <c r="I134">
+        <v>1115922.251043676</v>
+      </c>
+      <c r="J134">
+        <v>4841954.863209027</v>
+      </c>
+      <c r="K134">
+        <v>3987348.31503337</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>15</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>1116415.673881426</v>
+      </c>
+      <c r="G135">
+        <v>4841448.662089174</v>
+      </c>
+      <c r="H135">
+        <v>3986103.341676821</v>
+      </c>
+      <c r="I135">
+        <v>1115977.992136081</v>
+      </c>
+      <c r="J135">
+        <v>4841906.211655659</v>
+      </c>
+      <c r="K135">
+        <v>3987258.245787846</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>15</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>1116414.349670399</v>
+      </c>
+      <c r="G136">
+        <v>4841465.174887381</v>
+      </c>
+      <c r="H136">
+        <v>3986117.935575761</v>
+      </c>
+      <c r="I136">
+        <v>1116035.105801605</v>
+      </c>
+      <c r="J136">
+        <v>4841857.560102291</v>
+      </c>
+      <c r="K136">
+        <v>3987153.027871685</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>15</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" t="s">
+        <v>19</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>1116413.116641651</v>
+      </c>
+      <c r="G137">
+        <v>4841481.687685591</v>
+      </c>
+      <c r="H137">
+        <v>3986131.852346565</v>
+      </c>
+      <c r="I137">
+        <v>1116093.625838599</v>
+      </c>
+      <c r="J137">
+        <v>4841808.908548923</v>
+      </c>
+      <c r="K137">
+        <v>3987032.661284887</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>15</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" t="s">
+        <v>19</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>1116411.964795674</v>
+      </c>
+      <c r="G138">
+        <v>4841498.2004838</v>
+      </c>
+      <c r="H138">
+        <v>3986145.152047748</v>
+      </c>
+      <c r="I138">
+        <v>1116153.586877667</v>
+      </c>
+      <c r="J138">
+        <v>4841760.256995555</v>
+      </c>
+      <c r="K138">
+        <v>3986897.146027451</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>15</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" t="s">
+        <v>19</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>1116410.885602924</v>
+      </c>
+      <c r="G139">
+        <v>4841514.713282008</v>
+      </c>
+      <c r="H139">
+        <v>3986157.887085568</v>
+      </c>
+      <c r="I139">
+        <v>1116215.024402158</v>
+      </c>
+      <c r="J139">
+        <v>4841711.605442188</v>
+      </c>
+      <c r="K139">
+        <v>3986746.482099378</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>15</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" t="s">
+        <v>19</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>1116409.871737319</v>
+      </c>
+      <c r="G140">
+        <v>4841531.226080217</v>
+      </c>
+      <c r="H140">
+        <v>3986170.103461233</v>
+      </c>
+      <c r="I140">
+        <v>1116277.974769169</v>
+      </c>
+      <c r="J140">
+        <v>4841662.95388882</v>
+      </c>
+      <c r="K140">
+        <v>3986580.669500668</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>15</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>1116408.916866473</v>
+      </c>
+      <c r="G141">
+        <v>4841547.738878425</v>
+      </c>
+      <c r="H141">
+        <v>3986181.841773937</v>
+      </c>
+      <c r="I141">
+        <v>1116342.475231054</v>
+      </c>
+      <c r="J141">
+        <v>4841614.302335451</v>
+      </c>
+      <c r="K141">
+        <v>3986399.708231321</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>15</v>
+      </c>
+      <c r="B142" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>1116408.015484939</v>
+      </c>
+      <c r="G142">
+        <v>4841564.251676634</v>
+      </c>
+      <c r="H142">
+        <v>3986193.138034911</v>
+      </c>
+      <c r="I142">
+        <v>1116408.563957473</v>
+      </c>
+      <c r="J142">
+        <v>4841565.650782083</v>
+      </c>
+      <c r="K142">
+        <v>3986203.598291337</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>15</v>
+      </c>
+      <c r="B143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>1116407.162780411</v>
+      </c>
+      <c r="G143">
+        <v>4841580.764474843</v>
+      </c>
+      <c r="H143">
+        <v>3986204.024333701</v>
+      </c>
+      <c r="I143">
+        <v>1116476.28005798</v>
+      </c>
+      <c r="J143">
+        <v>4841516.999228716</v>
+      </c>
+      <c r="K143">
+        <v>3985992.339680715</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>15</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" t="s">
+        <v>19</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>1116406.354525454</v>
+      </c>
+      <c r="G144">
+        <v>4841597.277273051</v>
+      </c>
+      <c r="H144">
+        <v>3986214.529387711</v>
+      </c>
+      <c r="I144">
+        <v>1116545.663605165</v>
+      </c>
+      <c r="J144">
+        <v>4841468.347675348</v>
+      </c>
+      <c r="K144">
+        <v>3985765.932399455</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>15</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>1116405.586989212</v>
+      </c>
+      <c r="G145">
+        <v>4841613.79007126</v>
+      </c>
+      <c r="H145">
+        <v>3986224.678998738</v>
+      </c>
+      <c r="I145">
+        <v>1116616.755658366</v>
+      </c>
+      <c r="J145">
+        <v>4841419.69612198</v>
+      </c>
+      <c r="K145">
+        <v>3985524.376447558</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>15</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" t="s">
+        <v>19</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>1116404.856864864</v>
+      </c>
+      <c r="G146">
+        <v>4841630.302869469</v>
+      </c>
+      <c r="H146">
+        <v>3986234.496434778</v>
+      </c>
+      <c r="I146">
+        <v>1116689.598287975</v>
+      </c>
+      <c r="J146">
+        <v>4841371.044568611</v>
+      </c>
+      <c r="K146">
+        <v>3985267.671825025</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>15</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>1116404.161209628</v>
+      </c>
+      <c r="G147">
+        <v>4841646.815667678</v>
+      </c>
+      <c r="H147">
+        <v>3986244.002751296</v>
+      </c>
+      <c r="I147">
+        <v>1116764.234600324</v>
+      </c>
+      <c r="J147">
+        <v>4841322.393015244</v>
+      </c>
+      <c r="K147">
+        <v>3984995.818531854</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>15</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" t="s">
+        <v>19</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>1116403.497394822</v>
+      </c>
+      <c r="G148">
+        <v>4841663.328465886</v>
+      </c>
+      <c r="H148">
+        <v>3986253.217063155</v>
+      </c>
+      <c r="I148">
+        <v>1116840.7087632</v>
+      </c>
+      <c r="J148">
+        <v>4841273.741461876</v>
+      </c>
+      <c r="K148">
+        <v>3984708.816568045</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>15</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" t="s">
+        <v>19</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>1116402.863064039</v>
+      </c>
+      <c r="G149">
+        <v>4841679.841264095</v>
+      </c>
+      <c r="H149">
+        <v>3986262.156775997</v>
+      </c>
+      <c r="I149">
+        <v>1116919.066031983</v>
+      </c>
+      <c r="J149">
+        <v>4841225.089908508</v>
+      </c>
+      <c r="K149">
+        <v>3984406.6659336</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>15</v>
+      </c>
+      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>1116402.256097948</v>
+      </c>
+      <c r="G150">
+        <v>4841696.354062303</v>
+      </c>
+      <c r="H150">
+        <v>3986270.837784137</v>
+      </c>
+      <c r="I150">
+        <v>1116999.352776421</v>
+      </c>
+      <c r="J150">
+        <v>4841176.438355139</v>
+      </c>
+      <c r="K150">
+        <v>3984089.366628516</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>15</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" t="s">
+        <v>19</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>1116401.67458448</v>
+      </c>
+      <c r="G151">
+        <v>4841712.866860513</v>
+      </c>
+      <c r="H151">
+        <v>3986279.274640631</v>
+      </c>
+      <c r="I151">
+        <v>1117081.616508079</v>
+      </c>
+      <c r="J151">
+        <v>4841127.786801772</v>
+      </c>
+      <c r="K151">
+        <v>3983756.918652797</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>15</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" t="s">
+        <v>19</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>1116401.116793487</v>
+      </c>
+      <c r="G152">
+        <v>4841729.37965872</v>
+      </c>
+      <c r="H152">
+        <v>3986287.480704061</v>
+      </c>
+      <c r="I152">
+        <v>1117165.905908448</v>
+      </c>
+      <c r="J152">
+        <v>4841079.135248403</v>
+      </c>
+      <c r="K152">
+        <v>3983409.322006439</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>15</v>
+      </c>
+      <c r="B153" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" t="s">
+        <v>19</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>1116400.581155084</v>
+      </c>
+      <c r="G153">
+        <v>4841745.892456929</v>
+      </c>
+      <c r="H153">
+        <v>3986295.468265784</v>
+      </c>
+      <c r="I153">
+        <v>1117252.270857756</v>
+      </c>
+      <c r="J153">
+        <v>4841030.483695036</v>
+      </c>
+      <c r="K153">
+        <v>3983046.576689444</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>15</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" t="s">
+        <v>19</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>1116400.066241051</v>
+      </c>
+      <c r="G154">
+        <v>4841762.405255139</v>
+      </c>
+      <c r="H154">
+        <v>3986303.248660668</v>
+      </c>
+      <c r="I154">
+        <v>1117340.762464486</v>
+      </c>
+      <c r="J154">
+        <v>4840981.832141668</v>
+      </c>
+      <c r="K154">
+        <v>3982668.682701812</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>15</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" t="s">
+        <v>19</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>1116399.570748818</v>
+      </c>
+      <c r="G155">
+        <v>4841778.918053347</v>
+      </c>
+      <c r="H155">
+        <v>3986310.832363835</v>
+      </c>
+      <c r="I155">
+        <v>1117431.433095622</v>
+      </c>
+      <c r="J155">
+        <v>4840933.1805883</v>
+      </c>
+      <c r="K155">
+        <v>3982275.640043543</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>15</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" t="s">
+        <v>19</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>1116399.093487601</v>
+      </c>
+      <c r="G156">
+        <v>4841795.430851555</v>
+      </c>
+      <c r="H156">
+        <v>3986318.229075465</v>
+      </c>
+      <c r="I156">
+        <v>1117524.336407633</v>
+      </c>
+      <c r="J156">
+        <v>4840884.529034931</v>
+      </c>
+      <c r="K156">
+        <v>3981867.448714636</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>15</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" t="s">
+        <v>19</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>1116398.633366367</v>
+      </c>
+      <c r="G157">
+        <v>4841811.943649765</v>
+      </c>
+      <c r="H157">
+        <v>3986325.447795403</v>
+      </c>
+      <c r="I157">
+        <v>1117619.527378234</v>
+      </c>
+      <c r="J157">
+        <v>4840835.877481564</v>
+      </c>
+      <c r="K157">
+        <v>3981444.108715092</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>15</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" t="s">
+        <v>19</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>1116398.189383341</v>
+      </c>
+      <c r="G158">
+        <v>4841828.456447973</v>
+      </c>
+      <c r="H158">
+        <v>3986332.496888992</v>
+      </c>
+      <c r="I158">
+        <v>1117717.062338911</v>
+      </c>
+      <c r="J158">
+        <v>4840787.225928196</v>
+      </c>
+      <c r="K158">
+        <v>3981005.620044911</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>15</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" t="s">
+        <v>19</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>1116397.760616834</v>
+      </c>
+      <c r="G159">
+        <v>4841844.969246182</v>
+      </c>
+      <c r="H159">
+        <v>3986339.384145354</v>
+      </c>
+      <c r="I159">
+        <v>1117816.999008265</v>
+      </c>
+      <c r="J159">
+        <v>4840738.574374828</v>
+      </c>
+      <c r="K159">
+        <v>3980551.982704092</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>15</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" t="s">
+        <v>19</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>1116397.346217196</v>
+      </c>
+      <c r="G160">
+        <v>4841861.48204439</v>
+      </c>
+      <c r="H160">
+        <v>3986346.116829124</v>
+      </c>
+      <c r="I160">
+        <v>1117919.396526161</v>
+      </c>
+      <c r="J160">
+        <v>4840689.922821459</v>
+      </c>
+      <c r="K160">
+        <v>3980083.196692637</v>
       </c>
     </row>
   </sheetData>
